--- a/src/test/resources/TestData/UI_TestData_sabs.xlsx
+++ b/src/test/resources/TestData/UI_TestData_sabs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\321020\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8254B445-0D71-4DC5-82B8-02A5B5AACB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB73C41-F7AA-42CB-A1BC-81298E01EB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6F42FF04-6404-4D56-9108-23BBEBD1C648}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6F42FF04-6404-4D56-9108-23BBEBD1C648}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateProject" sheetId="1" r:id="rId1"/>
     <sheet name="UpdateProject" sheetId="2" r:id="rId2"/>
     <sheet name="OneFCFlowTestData" sheetId="3" r:id="rId3"/>
     <sheet name="OneFCFlowTestDataSanity" sheetId="4" r:id="rId4"/>
+    <sheet name="FCATestData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="171">
   <si>
     <t>TDID</t>
   </si>
@@ -395,6 +396,163 @@
   </si>
   <si>
     <t>A|A|A|3~B|B|B|4~C|C|C|5~A|A|A|3~B|B|B|4~C|C|C|5~A|A|A|3~B|B|B|4~C|C|C|5~C|C|C|5</t>
+  </si>
+  <si>
+    <t>2FC</t>
+  </si>
+  <si>
+    <t>Enter Your Weightings</t>
+  </si>
+  <si>
+    <t>S10_EnterWeightings</t>
+  </si>
+  <si>
+    <t>20|20|20|20|20</t>
+  </si>
+  <si>
+    <t>Use of subcontractors</t>
+  </si>
+  <si>
+    <t>S11_subcontractors</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Select resources and set weightings</t>
+  </si>
+  <si>
+    <t>Select service capabilities</t>
+  </si>
+  <si>
+    <t>How much the team can grow</t>
+  </si>
+  <si>
+    <t>Where the work will be done</t>
+  </si>
+  <si>
+    <t>Number of suppliers</t>
+  </si>
+  <si>
+    <t>Review suitable suppliers</t>
+  </si>
+  <si>
+    <t>Choose your Next Steps</t>
+  </si>
+  <si>
+    <t>S21_NextSteps</t>
+  </si>
+  <si>
+    <t>S19_ReviewSuppliers</t>
+  </si>
+  <si>
+    <t>S18_Numberofsuppliers</t>
+  </si>
+  <si>
+    <t>S17_Locations</t>
+  </si>
+  <si>
+    <t>S16_Scale</t>
+  </si>
+  <si>
+    <t>S13_Security</t>
+  </si>
+  <si>
+    <t>S12_Cluster_Data</t>
+  </si>
+  <si>
+    <t>S12_Cluster_IT Ops</t>
+  </si>
+  <si>
+    <t>S12_Cluster_Product Delivery</t>
+  </si>
+  <si>
+    <t>S12_Cluster_QAT</t>
+  </si>
+  <si>
+    <t>S12_Cluster_Technical</t>
+  </si>
+  <si>
+    <t>S12_Cluster_User Centred Design</t>
+  </si>
+  <si>
+    <t>S15_Cluster_Performance analysis and data</t>
+  </si>
+  <si>
+    <t>S15_Cluster_Security</t>
+  </si>
+  <si>
+    <t>S15_Cluster_Service delivery</t>
+  </si>
+  <si>
+    <t>S15_Cluster_Software development</t>
+  </si>
+  <si>
+    <t>S15_Cluster_Support and operations</t>
+  </si>
+  <si>
+    <t>S15_Cluster_Testing and auditing</t>
+  </si>
+  <si>
+    <t>S15_Cluster_User experience and design</t>
+  </si>
+  <si>
+    <t>S15_Cluster_User research</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Performance Analyst|5|5|Associate Performance Analyst, SFIA level 3|1~Data Analyst|5|5|Data Analyst, SFIA level 3|1</t>
+  </si>
+  <si>
+    <t>Test Engineer|5|5|Tester, SFIA level 3|1~Test Manager|5|5|Test Manager, SFIA level 6|1</t>
+  </si>
+  <si>
+    <t>Data Architect|20|20|Chief Data Architect, SFIA level 6|1~Data Architect|20|20|Senior Data Architect, SFIA level 5|1</t>
+  </si>
+  <si>
+    <t>Product management|5~Programme management|5</t>
+  </si>
+  <si>
+    <t>Game development|5~Machine learning|5</t>
+  </si>
+  <si>
+    <t>Network administration|5~Service desk|5</t>
+  </si>
+  <si>
+    <t>Process auditing|5~Software auditing|5</t>
+  </si>
+  <si>
+    <t>Prototyping|5~Service design|5</t>
+  </si>
+  <si>
+    <t>Usability testing|5~User journey mapping|5</t>
+  </si>
+  <si>
+    <t>S12_Cluster_No DDaT Cluster Mapping</t>
+  </si>
+  <si>
+    <t>Select resources and set weightings
+Security and Privacy (Non-DDAT)</t>
+  </si>
+  <si>
+    <t>Product Manager|5|5|Senior Product Manager, SFIA level 4|1~Delivery|5|5|Service Owner, SFIA level 7|1</t>
+  </si>
+  <si>
+    <t>User Researcher|10|10|Associate User Researcher, SFIA level 2|1~Technical Writer|10|10|Technical Writer, SFIA level 5|1</t>
+  </si>
+  <si>
+    <t>Business Relationship Manager|20|20|Senior Business Relationship Manager, SFIA level 6|1~Business Relationship Manager|20|20|Business Relationship Manager, SFIA level 4|1</t>
+  </si>
+  <si>
+    <t>Security and Privacy|10|10|Head of Information Security, SFIA level 7|1~Security and Privacy|10|10|Lead Information Security Adviser, SFIA level 6|1</t>
+  </si>
+  <si>
+    <t>26-99</t>
+  </si>
+  <si>
+    <t>Greater London|25~Isle of Man|25~North East England|25~North West England|25</t>
   </si>
 </sst>
 </file>
@@ -423,12 +581,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -458,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -468,6 +632,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7AC334-5A76-435C-B75A-0707E56AF15A}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,6 +1716,401 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BB604D-FB28-48A5-88C5-5602A9114678}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="30.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" customWidth="1"/>
+    <col min="16" max="23" width="30.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="44.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
